--- a/data/trans_dic/CoPsoQ_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CoPsoQ_R2-Edad-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3746932134968711</v>
+        <v>0.3593289987709371</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3738667844893617</v>
+        <v>0.3718219301533187</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2181323543131593</v>
+        <v>0.2380940198922687</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.4618648379168342</v>
+        <v>0.4593855871379188</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.470272307968603</v>
+        <v>0.4758389013776771</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.303761269994486</v>
+        <v>0.3080092515602409</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.4351241488771648</v>
+        <v>0.4430030975394229</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4557842002891342</v>
+        <v>0.459391692218398</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3239994289655281</v>
+        <v>0.3366747788792481</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5902288004191246</v>
+        <v>0.5910473376028468</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.596080329771532</v>
+        <v>0.5902322520435102</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7871625886682102</v>
+        <v>0.7985608937766999</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.6655809553538754</v>
+        <v>0.6773477400390489</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.6634392802261564</v>
+        <v>0.674969768626035</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.7824090547561348</v>
+        <v>0.764463688546682</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.6007166943939548</v>
+        <v>0.594795315040631</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.6073803355065652</v>
+        <v>0.5991531179679513</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.7198726368386256</v>
+        <v>0.725294801013791</v>
       </c>
     </row>
     <row r="7">
@@ -764,7 +764,7 @@
         <v>0.5720252110583834</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.4288450192459595</v>
+        <v>0.4288450192459593</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>0.5778245045028624</v>
@@ -773,7 +773,7 @@
         <v>0.5732308790766192</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.4089393992383459</v>
+        <v>0.4089393992383458</v>
       </c>
     </row>
     <row r="8">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.550069961596248</v>
+        <v>0.5468477544300336</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5150753845433401</v>
+        <v>0.5187261297919941</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2737269824704494</v>
+        <v>0.2780522630195966</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4841295085845816</v>
+        <v>0.4875190562142367</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.5171312106679578</v>
+        <v>0.5135561747080888</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3205557973448639</v>
+        <v>0.3292263704966356</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.5395938773674904</v>
+        <v>0.5411421598343983</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.5313453956730918</v>
+        <v>0.5311126077790906</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3165793152200203</v>
+        <v>0.3297941222061572</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.653584437468692</v>
+        <v>0.6481141428307239</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6234296353604695</v>
+        <v>0.6282809909773657</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5207336064352875</v>
+        <v>0.5182467185966372</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6101332970978628</v>
+        <v>0.6116959303900091</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.6266684971328355</v>
+        <v>0.6294289801220598</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.5317063278399067</v>
+        <v>0.5363989380662662</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.6179809818412297</v>
+        <v>0.6198794531662859</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.6105822207615758</v>
+        <v>0.613240248419967</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.4859232177592309</v>
+        <v>0.4935769104741891</v>
       </c>
     </row>
     <row r="10">
@@ -882,7 +882,7 @@
         <v>0.5581902472299666</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.4331950384914386</v>
+        <v>0.4331950384914385</v>
       </c>
     </row>
     <row r="11">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.549549220945697</v>
+        <v>0.5522686432344808</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5110911733263273</v>
+        <v>0.5162176607580902</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2922102120981866</v>
+        <v>0.2879750179260841</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5055113216441754</v>
+        <v>0.5049176598424844</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4952514397056983</v>
+        <v>0.4996295825503435</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.4109015796759339</v>
+        <v>0.4139315917952646</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.5494030463461667</v>
+        <v>0.5482610657296562</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.5217364594064138</v>
+        <v>0.5212033323428303</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3678390497273774</v>
+        <v>0.370871539417428</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6467608077708039</v>
+        <v>0.6529121381939195</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6071277316030915</v>
+        <v>0.6114104516308579</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4821972829637062</v>
+        <v>0.4763126785060381</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6236441968525821</v>
+        <v>0.6243060937476678</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.6091033872482488</v>
+        <v>0.6047698677909118</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.5783573114763264</v>
+        <v>0.5824374692283671</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.6268270115408496</v>
+        <v>0.625815752512253</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.5920821410076241</v>
+        <v>0.5952666037794421</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.499994198517469</v>
+        <v>0.4973888531863428</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.5098785102140884</v>
+        <v>0.5197478419336631</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.472102954817247</v>
+        <v>0.4733556929416247</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2925058078221577</v>
+        <v>0.2851495380677232</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4395738616531811</v>
+        <v>0.4500346404904931</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.4781447932592254</v>
+        <v>0.4791781073802373</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3454610059852459</v>
+        <v>0.3404513890671465</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.5072191941799014</v>
+        <v>0.507450998410337</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.4905365925481464</v>
+        <v>0.4928945567338224</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3353913502791298</v>
+        <v>0.3360898897789495</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6288836857303498</v>
+        <v>0.627003903055025</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5826737931949726</v>
+        <v>0.5842134298620515</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4584670255598532</v>
+        <v>0.4548814051745269</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5840602816936461</v>
+        <v>0.5943208762792799</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.6130025351366624</v>
+        <v>0.6063400661621714</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4898278846105448</v>
+        <v>0.4800568040436005</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.5951546299047324</v>
+        <v>0.596139857497301</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.5764468184159844</v>
+        <v>0.5740282137133136</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.4472838701303387</v>
+        <v>0.4466206059720526</v>
       </c>
     </row>
     <row r="16">
@@ -1082,7 +1082,7 @@
         <v>0.5343495499699352</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.438390423301716</v>
+        <v>0.4383904233017161</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.4844145263899111</v>
@@ -1091,7 +1091,7 @@
         <v>0.5008317456820948</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.5334076550400091</v>
+        <v>0.5334076550400089</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.5484387068477279</v>
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4908178897766242</v>
+        <v>0.4917450224170846</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4508038649656156</v>
+        <v>0.4471983889425242</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3299108417415623</v>
+        <v>0.3281082801140763</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3620631960264394</v>
+        <v>0.3633773145261064</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3996881685449549</v>
+        <v>0.3953362527738892</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.4108387442169546</v>
+        <v>0.4132172381831729</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.474058509393237</v>
+        <v>0.4799679325576161</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.4541481679238972</v>
+        <v>0.4536929755643748</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3917024853030581</v>
+        <v>0.3803916693544366</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6577728544974161</v>
+        <v>0.6553240772820883</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6193388747180371</v>
+        <v>0.6159385106050698</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5642867499196609</v>
+        <v>0.5566266224716839</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.6221509538243921</v>
+        <v>0.6045005196058608</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.6168837427804416</v>
+        <v>0.6138417923459352</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.6571461811006911</v>
+        <v>0.6486079442172002</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.6121896636391768</v>
+        <v>0.6129861493898664</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.5832058245425437</v>
+        <v>0.5853097807031641</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.5542848602292619</v>
+        <v>0.5598380241727695</v>
       </c>
     </row>
     <row r="19">
@@ -1191,7 +1191,7 @@
         <v>0.5492552692122116</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.3972603252073339</v>
+        <v>0.397260325207334</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>0.5433142340123405</v>
@@ -1200,7 +1200,7 @@
         <v>0.5516127117179139</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.4609221198754569</v>
+        <v>0.4609221198754568</v>
       </c>
       <c r="I19" s="5" t="n">
         <v>0.5670204211383862</v>
@@ -1209,7 +1209,7 @@
         <v>0.5502489460869632</v>
       </c>
       <c r="K19" s="5" t="n">
-        <v>0.4258049708390717</v>
+        <v>0.4258049708390718</v>
       </c>
     </row>
     <row r="20">
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.5558919396994488</v>
+        <v>0.5522576416574617</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.5230754902832964</v>
+        <v>0.5226546970597004</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3423269755702917</v>
+        <v>0.3470534451351499</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.5091686102007312</v>
+        <v>0.5119112018312167</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.5187002024252619</v>
+        <v>0.5220517387985596</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.4124486453974134</v>
+        <v>0.4159517441710456</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.5444954630452787</v>
+        <v>0.5441783341445088</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.528246407919125</v>
+        <v>0.5304153621987521</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.390559618313245</v>
+        <v>0.3918756358498318</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.6076253407561226</v>
+        <v>0.6086394946735727</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.5797559278839949</v>
+        <v>0.576591863405193</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.4508142320791408</v>
+        <v>0.4537052531069058</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.5762217168479726</v>
+        <v>0.5766099618323495</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.5826716513363942</v>
+        <v>0.5825129860431842</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.5075187279416602</v>
+        <v>0.5086010149513437</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.5865539331078564</v>
+        <v>0.5872251502165156</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.5710893755946692</v>
+        <v>0.5702857378981977</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.461107150886841</v>
+        <v>0.462753695361647</v>
       </c>
     </row>
     <row r="22">
@@ -1509,31 +1509,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>29437</v>
+        <v>28230</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>29576</v>
+        <v>29414</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>6567</v>
+        <v>7168</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>40552</v>
+        <v>40335</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>43197</v>
+        <v>43708</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>8032</v>
+        <v>8144</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>72389</v>
+        <v>73700</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>77923</v>
+        <v>78539</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>18321</v>
+        <v>19037</v>
       </c>
     </row>
     <row r="7">
@@ -1544,31 +1544,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>46371</v>
+        <v>46435</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>47155</v>
+        <v>46693</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>23698</v>
+        <v>24041</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>58439</v>
+        <v>59472</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>60940</v>
+        <v>61999</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>20688</v>
+        <v>20213</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>99938</v>
+        <v>98953</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>103840</v>
+        <v>102434</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>40705</v>
+        <v>41012</v>
       </c>
     </row>
     <row r="8">
@@ -1653,31 +1653,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>208512</v>
+        <v>207291</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>177281</v>
+        <v>178538</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>32448</v>
+        <v>32961</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>132619</v>
+        <v>133548</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>141547</v>
+        <v>140569</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>29418</v>
+        <v>30214</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>352354</v>
+        <v>353365</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>328319</v>
+        <v>328176</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>66580</v>
+        <v>69360</v>
       </c>
     </row>
     <row r="11">
@@ -1688,31 +1688,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>247751</v>
+        <v>245677</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>214575</v>
+        <v>216245</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>61728</v>
+        <v>61433</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>167136</v>
+        <v>167564</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>171529</v>
+        <v>172285</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>48796</v>
+        <v>49226</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>403540</v>
+        <v>404780</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>377280</v>
+        <v>378922</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>102195</v>
+        <v>103805</v>
       </c>
     </row>
     <row r="12">
@@ -1797,31 +1797,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>227336</v>
+        <v>228461</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>234891</v>
+        <v>237247</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>34479</v>
+        <v>33979</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>139872</v>
+        <v>139708</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>157200</v>
+        <v>158589</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>42725</v>
+        <v>43040</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>379292</v>
+        <v>378504</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>405390</v>
+        <v>404976</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>81650</v>
+        <v>82323</v>
       </c>
     </row>
     <row r="15">
@@ -1832,31 +1832,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>267550</v>
+        <v>270095</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>279029</v>
+        <v>280997</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>56896</v>
+        <v>56202</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>172559</v>
+        <v>172742</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>193338</v>
+        <v>191962</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>60137</v>
+        <v>60561</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>432744</v>
+        <v>432046</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>460048</v>
+        <v>462523</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>110985</v>
+        <v>110407</v>
       </c>
     </row>
     <row r="16">
@@ -1941,31 +1941,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>185216</v>
+        <v>188801</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>173605</v>
+        <v>174066</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>40124</v>
+        <v>39115</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>96205</v>
+        <v>98495</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>116246</v>
+        <v>116497</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>41715</v>
+        <v>41111</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>295260</v>
+        <v>295395</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>299642</v>
+        <v>301083</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>86505</v>
+        <v>86686</v>
       </c>
     </row>
     <row r="19">
@@ -1976,31 +1976,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>228445</v>
+        <v>227762</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>214265</v>
+        <v>214832</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>62889</v>
+        <v>62397</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>127827</v>
+        <v>130073</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>149032</v>
+        <v>147412</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>59148</v>
+        <v>57968</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>346449</v>
+        <v>347023</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>352120</v>
+        <v>350643</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>115365</v>
+        <v>115194</v>
       </c>
     </row>
     <row r="20">
@@ -2085,31 +2085,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>76204</v>
+        <v>76348</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>74710</v>
+        <v>74112</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>22631</v>
+        <v>22508</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>24859</v>
+        <v>24949</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>42319</v>
+        <v>41858</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>16864</v>
+        <v>16962</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>106150</v>
+        <v>107473</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>123349</v>
+        <v>123225</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>42949</v>
+        <v>41708</v>
       </c>
     </row>
     <row r="23">
@@ -2120,31 +2120,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>102125</v>
+        <v>101745</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>102641</v>
+        <v>102077</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>38709</v>
+        <v>38183</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>42716</v>
+        <v>41504</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>65315</v>
+        <v>64993</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>26975</v>
+        <v>26624</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>137080</v>
+        <v>137258</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>158402</v>
+        <v>158973</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>60775</v>
+        <v>61384</v>
       </c>
     </row>
     <row r="24">
@@ -2229,31 +2229,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>772590</v>
+        <v>767539</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>740851</v>
+        <v>740255</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>161718</v>
+        <v>163951</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>471463</v>
+        <v>474003</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>535289</v>
+        <v>538748</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>158377</v>
+        <v>159722</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>1260925</v>
+        <v>1260190</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>1293315</v>
+        <v>1298625</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>334475</v>
+        <v>335602</v>
       </c>
     </row>
     <row r="27">
@@ -2264,31 +2264,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>844490</v>
+        <v>845899</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>821130</v>
+        <v>816648</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>212968</v>
+        <v>214334</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>533551</v>
+        <v>533910</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>601307</v>
+        <v>601143</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>194883</v>
+        <v>195299</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1358322</v>
+        <v>1359877</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1398208</v>
+        <v>1396241</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>394892</v>
+        <v>396302</v>
       </c>
     </row>
     <row r="28">
